--- a/biology/Zoologie/Gonionotophis_chanleri/Gonionotophis_chanleri.xlsx
+++ b/biology/Zoologie/Gonionotophis_chanleri/Gonionotophis_chanleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonionotophis chanleri est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonionotophis chanleri est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'est de la République démocratique du Congo ;
 au Rwanda ;
 au Burundi ;
@@ -549,7 +563,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Astor Chanler.
 </t>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stejneger, 1893 : On some collections of reptiles and batrachians from East Africa and the adjacent islands, recently received from Dr. W. L. Abbott and Mr. William Astor Chanler, with descriptions of new species. Proceedings of the United States National Museum, vol. 16, p. 711-741 (texte intégral).</t>
         </is>
